--- a/template/template_test_2.xlsx
+++ b/template/template_test_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clone/code/go_demo/grpc/go-grpc/go-excel-import/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81FDFF8-A1D2-0C43-AA2D-8D6C4155B650}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85B30A6-600F-1143-8F38-648E1A6E29AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{F9C95F0D-1DE0-6F42-8877-437BDC34A5F1}"/>
   </bookViews>
@@ -34,15 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
-  <si>
-    <t>测试模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TemplateTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +200,34 @@
   </si>
   <si>
     <t>NOTE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表展现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 列表展现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 搜索条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试模板2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TemplateTest2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,12 +252,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -254,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -263,6 +295,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C3C5D0-27FF-4E41-8DAC-F4E7F0032C46}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -595,230 +633,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6">
-        <v>23.481000000000002</v>
-      </c>
-      <c r="E6">
-        <v>118.23099999999999</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7">
-        <v>23.481999999999999</v>
-      </c>
-      <c r="E7">
-        <v>118.232</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>23.483000000000001</v>
-      </c>
-      <c r="E8">
-        <v>118.233</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>23.481000000000002</v>
+      </c>
+      <c r="E9">
+        <v>118.23099999999999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>23.481999999999999</v>
+      </c>
+      <c r="E10">
+        <v>118.232</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>23.483000000000001</v>
+      </c>
+      <c r="E11">
+        <v>118.233</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
         <v>23.484000000000002</v>
       </c>
-      <c r="E9">
+      <c r="E12">
         <v>118.23399999999999</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
+      <c r="I12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/template/template_test_2.xlsx
+++ b/template/template_test_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clone/code/go_demo/grpc/go-grpc/go-excel-import/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85B30A6-600F-1143-8F38-648E1A6E29AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6DBE9D-4BF0-0241-B3F7-EFA111BB9E6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{F9C95F0D-1DE0-6F42-8877-437BDC34A5F1}"/>
+    <workbookView xWindow="13900" yWindow="960" windowWidth="28240" windowHeight="17440" xr2:uid="{F9C95F0D-1DE0-6F42-8877-437BDC34A5F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -622,7 +622,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
